--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_2_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201130.3343754574</v>
+        <v>303817.0567467522</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2114249.189782366</v>
+        <v>2972140.804851015</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19492207.60956401</v>
+        <v>20333027.18149279</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5202859.296572428</v>
+        <v>4807275.805721681</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="3">
@@ -788,19 +788,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V3" t="n">
-        <v>38.87161743162454</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -867,16 +867,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -940,28 +940,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,10 +1025,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1095,22 +1095,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>42.20118209180435</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V8" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1223,10 +1223,10 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X10" t="n">
-        <v>44.13217237922859</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="W11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,19 +1499,19 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.13217237922859</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>38.87161743162455</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1654,25 +1654,25 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>14.31059503474164</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,16 +1736,16 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T15" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
     </row>
     <row r="16">
@@ -1815,19 +1815,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>44.13217237922859</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="T16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="W16" t="n">
-        <v>0.790450447682262</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>28.88091821707973</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1931,10 +1931,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>53.38331579627027</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="W18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2043,28 +2043,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2125,25 +2125,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U20" t="n">
-        <v>241.0142888776591</v>
+        <v>38.87161743162454</v>
       </c>
       <c r="V20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>11.19305615617957</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2168,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>33.9676516817251</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>38.12502610536669</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2295,16 +2295,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>0.7904504476822691</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="W22" t="n">
-        <v>133.186967585368</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2365,19 +2365,19 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -2459,10 +2459,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>104.7383832473596</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2566,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>82.96396779500076</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2599,22 +2599,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="U26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.0142888776591</v>
+        <v>196.0929612559941</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>76.60797799425812</v>
       </c>
       <c r="S27" t="n">
-        <v>35.40726547353833</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2836,16 +2836,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>196.0929612559941</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>33.26513104358009</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2924,22 +2924,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W30" t="n">
-        <v>99.22041616487701</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3040,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3073,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>177.9933921796108</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>84.0572199420196</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>129.5673497550175</v>
       </c>
     </row>
     <row r="34">
@@ -3207,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,7 +3271,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3310,25 +3310,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>102.3382270926889</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,16 +3401,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3465,7 +3465,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3514,13 +3514,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="G38" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>28.12427423846114</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3638,19 +3638,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>187.9840913941556</v>
       </c>
       <c r="Y39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3705,10 +3705,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="H41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.55395105612297</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3827,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="V42" t="n">
-        <v>185.826685346498</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0142888776591</v>
+        <v>173.4137682118176</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3982,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4024,22 +4024,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>163.4230689972727</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>102.3382270926889</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4103,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>173.4137682118176</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C2" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D2" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E2" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F2" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G2" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L2" t="n">
-        <v>47.22142444577459</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M2" t="n">
-        <v>90.91227510121089</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N2" t="n">
-        <v>132.8378388614781</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O2" t="n">
-        <v>132.8378388614781</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S2" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T2" t="n">
-        <v>131.9507376187037</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U2" t="n">
-        <v>87.37278572049297</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V2" t="n">
-        <v>87.37278572049297</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W2" t="n">
-        <v>87.37278572049297</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X2" t="n">
-        <v>87.37278572049297</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.37278572049297</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K3" t="n">
-        <v>47.22142444577459</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L3" t="n">
-        <v>47.22142444577459</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M3" t="n">
-        <v>89.14698820604177</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N3" t="n">
-        <v>132.8378388614781</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O3" t="n">
-        <v>132.8378388614781</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P3" t="n">
-        <v>176.5286895169144</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T3" t="n">
-        <v>131.9507376187037</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U3" t="n">
-        <v>87.37278572049297</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V3" t="n">
-        <v>48.10852568854899</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y3" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R4" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S4" t="n">
-        <v>138.062864280609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T4" t="n">
-        <v>93.48491238239833</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U4" t="n">
-        <v>48.90696048418764</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V4" t="n">
-        <v>4.329008585976936</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W4" t="n">
-        <v>4.329008585976936</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X4" t="n">
-        <v>4.329008585976936</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.329008585976936</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="C5" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="D5" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E5" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F5" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="G5" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="H5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K5" t="n">
-        <v>3.530573790338288</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L5" t="n">
-        <v>45.45613755060546</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M5" t="n">
-        <v>89.14698820604177</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q5" t="n">
-        <v>166.4370741486873</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R5" t="n">
-        <v>121.8591222504766</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S5" t="n">
-        <v>121.8591222504766</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T5" t="n">
-        <v>121.8591222504766</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U5" t="n">
-        <v>77.28117035226589</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V5" t="n">
-        <v>32.70321845405519</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W5" t="n">
-        <v>32.70321845405519</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X5" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y5" t="n">
-        <v>3.530573790338288</v>
+        <v>24.84391873418747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.10852568854899</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C6" t="n">
-        <v>48.10852568854899</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D6" t="n">
-        <v>3.530573790338288</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E6" t="n">
-        <v>3.530573790338288</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="F6" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G6" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K6" t="n">
-        <v>3.530573790338288</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M6" t="n">
-        <v>90.91227510121089</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N6" t="n">
-        <v>134.6031257566472</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O6" t="n">
-        <v>176.5286895169144</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S6" t="n">
-        <v>131.9507376187037</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T6" t="n">
-        <v>92.68647758675968</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U6" t="n">
-        <v>92.68647758675968</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V6" t="n">
-        <v>92.68647758675968</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W6" t="n">
-        <v>92.68647758675968</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="X6" t="n">
-        <v>92.68647758675968</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y6" t="n">
-        <v>92.68647758675968</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P7" t="n">
-        <v>135.3139342451479</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q7" t="n">
-        <v>90.73598234693722</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R7" t="n">
-        <v>46.15803044872652</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S7" t="n">
-        <v>3.530573790338288</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T7" t="n">
-        <v>3.530573790338288</v>
+        <v>79.68686933990632</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K8" t="n">
-        <v>3.530573790338288</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L8" t="n">
-        <v>3.530573790338288</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M8" t="n">
-        <v>47.22142444577459</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N8" t="n">
-        <v>89.14698820604177</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R8" t="n">
-        <v>166.4370741486873</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S8" t="n">
-        <v>121.8591222504766</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T8" t="n">
-        <v>77.28117035226589</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U8" t="n">
-        <v>32.70321845405519</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K9" t="n">
-        <v>3.530573790338288</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L9" t="n">
-        <v>3.530573790338288</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N9" t="n">
-        <v>89.14698820604177</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O9" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R9" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S9" t="n">
-        <v>131.9507376187037</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="T9" t="n">
-        <v>87.37278572049297</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="U9" t="n">
-        <v>48.10852568854899</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="V9" t="n">
-        <v>48.10852568854899</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>82.49138865710684</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="R10" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="S10" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="T10" t="n">
-        <v>93.48491238239833</v>
+        <v>80.62014129470579</v>
       </c>
       <c r="U10" t="n">
-        <v>93.48491238239833</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="V10" t="n">
-        <v>48.90696048418764</v>
+        <v>52.75142891054807</v>
       </c>
       <c r="W10" t="n">
-        <v>48.90696048418764</v>
+        <v>24.88271652639035</v>
       </c>
       <c r="X10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.329008585976936</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="D11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="E11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="M11" t="n">
-        <v>134.6031257566472</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="N11" t="n">
-        <v>176.5286895169144</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q11" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R11" t="n">
-        <v>121.8591222504766</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="S11" t="n">
-        <v>121.8591222504766</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="T11" t="n">
-        <v>121.8591222504766</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="U11" t="n">
-        <v>121.8591222504766</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="V11" t="n">
-        <v>121.8591222504766</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W11" t="n">
-        <v>77.28117035226589</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X11" t="n">
-        <v>77.28117035226589</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y11" t="n">
-        <v>48.10852568854899</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H12" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K12" t="n">
-        <v>47.22142444577459</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L12" t="n">
-        <v>90.91227510121089</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M12" t="n">
-        <v>134.6031257566472</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N12" t="n">
-        <v>134.6031257566472</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R12" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T12" t="n">
-        <v>131.9507376187037</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U12" t="n">
-        <v>131.9507376187037</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V12" t="n">
-        <v>131.9507376187037</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y12" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F13" t="n">
-        <v>92.68647758675968</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G13" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R13" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S13" t="n">
-        <v>138.062864280609</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T13" t="n">
-        <v>138.062864280609</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="U13" t="n">
-        <v>138.062864280609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="V13" t="n">
-        <v>138.062864280609</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W13" t="n">
-        <v>93.48491238239833</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="X13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y13" t="n">
-        <v>93.48491238239833</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K14" t="n">
-        <v>45.45613755060546</v>
+        <v>28.41772601812563</v>
       </c>
       <c r="L14" t="n">
-        <v>89.14698820604177</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M14" t="n">
-        <v>132.8378388614781</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>100.2684856730375</v>
       </c>
       <c r="R14" t="n">
-        <v>166.4370741486873</v>
+        <v>72.39977328887976</v>
       </c>
       <c r="S14" t="n">
-        <v>121.8591222504766</v>
+        <v>44.53106090472204</v>
       </c>
       <c r="T14" t="n">
-        <v>77.28117035226589</v>
+        <v>16.66234852056432</v>
       </c>
       <c r="U14" t="n">
-        <v>77.28117035226589</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V14" t="n">
-        <v>77.28117035226589</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W14" t="n">
-        <v>48.10852568854899</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>92.68647758675968</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="C15" t="n">
-        <v>92.68647758675968</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="D15" t="n">
-        <v>48.10852568854899</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="E15" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="F15" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="G15" t="n">
-        <v>3.530573790338288</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="H15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L15" t="n">
-        <v>90.91227510121089</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M15" t="n">
-        <v>134.6031257566472</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N15" t="n">
-        <v>176.5286895169144</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="T15" t="n">
-        <v>137.2644294849704</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="U15" t="n">
-        <v>137.2644294849704</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="V15" t="n">
-        <v>92.68647758675968</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="W15" t="n">
-        <v>92.68647758675968</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="X15" t="n">
-        <v>92.68647758675968</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="Y15" t="n">
-        <v>92.68647758675968</v>
+        <v>54.62267627294912</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R16" t="n">
-        <v>138.062864280609</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S16" t="n">
-        <v>93.48491238239833</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="T16" t="n">
-        <v>48.90696048418764</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="U16" t="n">
-        <v>4.329008585976936</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="V16" t="n">
-        <v>4.329008585976936</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="W16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.530573790338288</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>77.28117035226589</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>32.70321845405519</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J17" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K17" t="n">
-        <v>122.2961490211351</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L17" t="n">
-        <v>302.3720006057937</v>
+        <v>45.45613755060546</v>
       </c>
       <c r="M17" t="n">
-        <v>519.3476278686978</v>
+        <v>89.14698820604177</v>
       </c>
       <c r="N17" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O17" t="n">
-        <v>874.3971002185853</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P17" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="R17" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="S17" t="n">
-        <v>802.5825927271064</v>
+        <v>166.4370741486873</v>
       </c>
       <c r="T17" t="n">
-        <v>577.2332497330343</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="U17" t="n">
-        <v>333.7844730889342</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="V17" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="W17" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="X17" t="n">
-        <v>262.7299197543128</v>
+        <v>121.8591222504766</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>121.8591222504766</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>378.9756972971371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C18" t="n">
-        <v>378.9756972971371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D18" t="n">
-        <v>378.9756972971371</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E18" t="n">
-        <v>219.7382422916816</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F18" t="n">
-        <v>73.20368431856653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G18" t="n">
-        <v>73.20368431856653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H18" t="n">
-        <v>73.20368431856653</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2442489785619</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M18" t="n">
-        <v>487.8483949674443</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N18" t="n">
-        <v>726.4525409563269</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O18" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="Q18" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S18" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T18" t="n">
-        <v>790.6398109613051</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="U18" t="n">
-        <v>790.6398109613051</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="V18" t="n">
-        <v>790.6398109613051</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W18" t="n">
-        <v>547.1910343172051</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X18" t="n">
-        <v>547.1910343172051</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y18" t="n">
-        <v>547.1910343172051</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L19" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M19" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N19" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O19" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0645035650224</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.03213664411894</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K20" t="n">
-        <v>122.2961490211351</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="L20" t="n">
-        <v>302.3720006057937</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="M20" t="n">
-        <v>519.3476278686978</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="N20" t="n">
-        <v>725.2021500759372</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="O20" t="n">
-        <v>874.3971002185853</v>
+        <v>132.8378388614781</v>
       </c>
       <c r="P20" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T20" t="n">
-        <v>517.4848137278872</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U20" t="n">
-        <v>274.0360370837871</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="V20" t="n">
-        <v>30.58726043968704</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="W20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="X20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>417.2522547781879</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="C21" t="n">
-        <v>417.2522547781879</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="D21" t="n">
-        <v>417.2522547781879</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="E21" t="n">
-        <v>258.0147997727324</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="F21" t="n">
-        <v>258.0147997727324</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="J21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L21" t="n">
-        <v>65.60123993063803</v>
+        <v>47.22142444577459</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>90.91227510121089</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>134.6031257566472</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="Q21" t="n">
-        <v>964.0571555106362</v>
+        <v>176.5286895169144</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>131.9507376187037</v>
       </c>
       <c r="S21" t="n">
-        <v>862.8876260635219</v>
+        <v>87.37278572049297</v>
       </c>
       <c r="T21" t="n">
-        <v>660.701031422288</v>
+        <v>42.79483382228227</v>
       </c>
       <c r="U21" t="n">
-        <v>660.701031422288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="V21" t="n">
-        <v>660.701031422288</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="W21" t="n">
-        <v>417.2522547781879</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="X21" t="n">
-        <v>417.2522547781879</v>
+        <v>4.284706443124001</v>
       </c>
       <c r="Y21" t="n">
-        <v>417.2522547781879</v>
+        <v>4.284706443124001</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>30.84469879805127</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>70.03273699027345</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>113.7235876457098</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>138.062864280609</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>137.2644294849704</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>92.68647758675968</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>48.10852568854899</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>3.530573790338288</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P24" t="n">
         <v>964.0571555106362</v>
@@ -6092,22 +6092,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T24" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U24" t="n">
-        <v>360.2295980564601</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V24" t="n">
-        <v>125.0774898247174</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X24" t="n">
         <v>19.28114311021272</v>
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.6850394389064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="C26" t="n">
-        <v>315.6850394389064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="D26" t="n">
-        <v>315.6850394389064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E26" t="n">
-        <v>315.6850394389064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F26" t="n">
-        <v>315.6850394389064</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G26" t="n">
-        <v>315.6850394389064</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H26" t="n">
-        <v>231.8830517671884</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J26" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K26" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L26" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M26" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759372</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P26" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>650.444607311663</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="U26" t="n">
-        <v>559.1338160830064</v>
+        <v>432.8749126823416</v>
       </c>
       <c r="V26" t="n">
-        <v>315.6850394389064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W26" t="n">
-        <v>315.6850394389064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="X26" t="n">
-        <v>315.6850394389064</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="Y26" t="n">
-        <v>315.6850394389064</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J27" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M27" t="n">
-        <v>487.8483949674443</v>
+        <v>569.0691952848756</v>
       </c>
       <c r="N27" t="n">
-        <v>725.4530095217538</v>
+        <v>782.3092529910735</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>784.1941947783168</v>
       </c>
       <c r="S27" t="n">
-        <v>928.2922408909005</v>
+        <v>610.7768502289857</v>
       </c>
       <c r="T27" t="n">
-        <v>726.1056462496665</v>
+        <v>610.7768502289857</v>
       </c>
       <c r="U27" t="n">
-        <v>497.8820279860555</v>
+        <v>610.7768502289857</v>
       </c>
       <c r="V27" t="n">
-        <v>262.7299197543128</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="W27" t="n">
-        <v>19.28114311021272</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="X27" t="n">
-        <v>19.28114311021272</v>
+        <v>393.2071555996642</v>
       </c>
       <c r="Y27" t="n">
-        <v>19.28114311021272</v>
+        <v>185.4468568347103</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>485.167420504237</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="C29" t="n">
-        <v>485.167420504237</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="D29" t="n">
-        <v>485.167420504237</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E29" t="n">
-        <v>241.7186438601369</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F29" t="n">
-        <v>241.7186438601369</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K29" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L29" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M29" t="n">
-        <v>519.3476278686978</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759372</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185853</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P29" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S29" t="n">
-        <v>953.9655401424092</v>
+        <v>650.444607311663</v>
       </c>
       <c r="T29" t="n">
-        <v>728.6161971483371</v>
+        <v>650.444607311663</v>
       </c>
       <c r="U29" t="n">
-        <v>728.6161971483371</v>
+        <v>650.444607311663</v>
       </c>
       <c r="V29" t="n">
-        <v>728.6161971483371</v>
+        <v>650.444607311663</v>
       </c>
       <c r="W29" t="n">
-        <v>728.6161971483371</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="X29" t="n">
-        <v>728.6161971483371</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y29" t="n">
-        <v>728.6161971483371</v>
+        <v>452.3709090732851</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J30" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>688.1586461827818</v>
       </c>
       <c r="T30" t="n">
-        <v>790.6398109613051</v>
+        <v>485.9720515415478</v>
       </c>
       <c r="U30" t="n">
-        <v>562.4161926976942</v>
+        <v>268.4023569122264</v>
       </c>
       <c r="V30" t="n">
-        <v>327.2640844659515</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="W30" t="n">
-        <v>227.0414418751666</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>50.83266228290498</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>50.83266228290498</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="V31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>232.6540053493298</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>614.8420490346726</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="T32" t="n">
-        <v>527.5764290961142</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="U32" t="n">
-        <v>284.1276524520142</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="V32" t="n">
-        <v>40.6788758079141</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="W32" t="n">
-        <v>19.28114311021272</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="X32" t="n">
-        <v>19.28114311021272</v>
+        <v>448.2340696092722</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>448.2340696092722</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>459.7635558748512</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>671.0535768560208</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R33" t="n">
-        <v>879.1508727409195</v>
+        <v>752.5275250222574</v>
       </c>
       <c r="S33" t="n">
-        <v>705.7335281915883</v>
+        <v>579.1101804729262</v>
       </c>
       <c r="T33" t="n">
-        <v>705.7335281915883</v>
+        <v>579.1101804729262</v>
       </c>
       <c r="U33" t="n">
-        <v>705.7335281915883</v>
+        <v>363.5301162129839</v>
       </c>
       <c r="V33" t="n">
-        <v>470.5814199598456</v>
+        <v>147.9500519530415</v>
       </c>
       <c r="W33" t="n">
-        <v>227.1326433157456</v>
+        <v>147.9500519530415</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>147.9500519530415</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I34" t="n">
-        <v>113.583345248266</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="W34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y34" t="n">
-        <v>153.8134336004835</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>498.6475821194843</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>704.5021043267236</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>422.536925949487</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>206.9568616895446</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L36" t="n">
-        <v>248.2447175439888</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="M36" t="n">
-        <v>486.8488635328713</v>
+        <v>228.3639620705569</v>
       </c>
       <c r="N36" t="n">
-        <v>725.4530095217538</v>
+        <v>439.6539830517264</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>650.9440040328959</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>833.5874816462467</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R36" t="n">
-        <v>933.9571464551993</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S36" t="n">
-        <v>933.9571464551993</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T36" t="n">
-        <v>933.9571464551993</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U36" t="n">
-        <v>705.7335281915883</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V36" t="n">
-        <v>470.5814199598456</v>
+        <v>422.536925949487</v>
       </c>
       <c r="W36" t="n">
-        <v>227.1326433157456</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="X36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>151.0645035650224</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C37" t="n">
-        <v>151.0645035650224</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D37" t="n">
-        <v>151.0645035650224</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K37" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L37" t="n">
-        <v>46.5952681179257</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M37" t="n">
-        <v>85.78330631014788</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N37" t="n">
-        <v>129.4741569655842</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="V37" t="n">
-        <v>151.0645035650224</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="W37" t="n">
-        <v>151.0645035650224</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="X37" t="n">
-        <v>151.0645035650224</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.0645035650224</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="E38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="F38" t="n">
-        <v>262.7299197543128</v>
+        <v>261.0623631659572</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>45.48229890601485</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>17.62165426160527</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>197.6975058462639</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>408.9875268274333</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>614.8420490346726</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>764.0369991773207</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>692.2224916858419</v>
       </c>
       <c r="S38" t="n">
-        <v>731.528039392485</v>
+        <v>692.2224916858419</v>
       </c>
       <c r="T38" t="n">
-        <v>506.1786963984129</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="U38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="V38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="W38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="X38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
       <c r="Y38" t="n">
-        <v>262.7299197543128</v>
+        <v>476.6424274258995</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>142.4315011472248</v>
       </c>
       <c r="L39" t="n">
-        <v>248.2447175439888</v>
+        <v>353.7215221283943</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>565.0115431095638</v>
       </c>
       <c r="N39" t="n">
-        <v>725.4530095217538</v>
+        <v>776.3015640907333</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>638.1169902094293</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>422.536925949487</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>206.9568616895446</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="Y39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>44.38806609710041</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>83.57610428932259</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>127.2669549447589</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="R40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>151.6062315796582</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>262.7299197543128</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7299197543128</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="D41" t="n">
-        <v>262.7299197543128</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="E41" t="n">
-        <v>262.7299197543128</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="F41" t="n">
-        <v>262.7299197543128</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="G41" t="n">
-        <v>262.7299197543128</v>
+        <v>214.6213940657638</v>
       </c>
       <c r="H41" t="n">
-        <v>19.28114311021272</v>
+        <v>214.6213940657638</v>
       </c>
       <c r="I41" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="J41" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="K41" t="n">
-        <v>122.2961490211351</v>
+        <v>118.7655752307968</v>
       </c>
       <c r="L41" t="n">
-        <v>302.3720006057937</v>
+        <v>298.8414268154554</v>
       </c>
       <c r="M41" t="n">
-        <v>519.3476278686978</v>
+        <v>493.7547221489016</v>
       </c>
       <c r="N41" t="n">
-        <v>725.2021500759372</v>
+        <v>688.6680174823478</v>
       </c>
       <c r="O41" t="n">
-        <v>874.3971002185853</v>
+        <v>697.8684107016709</v>
       </c>
       <c r="P41" t="n">
-        <v>964.0571555106362</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="Q41" t="n">
-        <v>953.9655401424092</v>
+        <v>777.4368506254948</v>
       </c>
       <c r="R41" t="n">
-        <v>802.5825927271064</v>
+        <v>626.0539032101921</v>
       </c>
       <c r="S41" t="n">
-        <v>802.5825927271064</v>
+        <v>612.3630435575426</v>
       </c>
       <c r="T41" t="n">
-        <v>577.2332497330343</v>
+        <v>612.3630435575426</v>
       </c>
       <c r="U41" t="n">
-        <v>577.2332497330343</v>
+        <v>612.3630435575426</v>
       </c>
       <c r="V41" t="n">
-        <v>333.7844730889342</v>
+        <v>612.3630435575426</v>
       </c>
       <c r="W41" t="n">
-        <v>262.7299197543128</v>
+        <v>612.3630435575426</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="Y41" t="n">
-        <v>262.7299197543128</v>
+        <v>413.4922188116532</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>325.0531560887832</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="C42" t="n">
-        <v>325.0531560887832</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="D42" t="n">
-        <v>325.0531560887832</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="E42" t="n">
-        <v>165.8157010833278</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="F42" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="G42" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="H42" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="I42" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="J42" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>141.1081293777118</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>141.1081293777118</v>
       </c>
       <c r="M42" t="n">
-        <v>487.8483949674443</v>
+        <v>336.021424711158</v>
       </c>
       <c r="N42" t="n">
-        <v>726.4525409563269</v>
+        <v>530.9347200446041</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>725.8480153780503</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="Q42" t="n">
-        <v>964.0571555106362</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="R42" t="n">
-        <v>964.0571555106362</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>588.6576412478325</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>389.7868165019432</v>
       </c>
       <c r="V42" t="n">
-        <v>776.3534329384161</v>
+        <v>190.9159917560538</v>
       </c>
       <c r="W42" t="n">
-        <v>532.9046562943161</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="X42" t="n">
-        <v>325.0531560887832</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="Y42" t="n">
-        <v>325.0531560887832</v>
+        <v>15.75056931987444</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="C43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="D43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="E43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="F43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="G43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="H43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="I43" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="J43" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="K43" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="L43" t="n">
-        <v>46.5952681179257</v>
+        <v>43.06469432758742</v>
       </c>
       <c r="M43" t="n">
-        <v>85.78330631014788</v>
+        <v>82.2527325198096</v>
       </c>
       <c r="N43" t="n">
-        <v>129.4741569655842</v>
+        <v>125.9435831752459</v>
       </c>
       <c r="O43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="P43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="Q43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="W43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="X43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="Y43" t="n">
-        <v>19.28114311021272</v>
+        <v>150.2828598101452</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>19.28114311021272</v>
+        <v>214.6213940657638</v>
       </c>
       <c r="C44" t="n">
-        <v>19.28114311021272</v>
+        <v>214.6213940657638</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="J44" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="K44" t="n">
-        <v>122.2961490211351</v>
+        <v>118.7655752307968</v>
       </c>
       <c r="L44" t="n">
-        <v>302.3720006057937</v>
+        <v>298.8414268154554</v>
       </c>
       <c r="M44" t="n">
-        <v>519.3476278686978</v>
+        <v>443.4202205176276</v>
       </c>
       <c r="N44" t="n">
-        <v>725.2021500759372</v>
+        <v>638.3335158510738</v>
       </c>
       <c r="O44" t="n">
-        <v>874.3971002185853</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="P44" t="n">
-        <v>964.0571555106362</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>777.4368506254948</v>
       </c>
       <c r="R44" t="n">
-        <v>802.5825927271064</v>
+        <v>777.4368506254948</v>
       </c>
       <c r="S44" t="n">
-        <v>591.4512093066566</v>
+        <v>612.3630435575426</v>
       </c>
       <c r="T44" t="n">
-        <v>366.1018663125844</v>
+        <v>612.3630435575426</v>
       </c>
       <c r="U44" t="n">
-        <v>122.6530896684844</v>
+        <v>612.3630435575426</v>
       </c>
       <c r="V44" t="n">
-        <v>19.28114311021272</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="W44" t="n">
-        <v>19.28114311021272</v>
+        <v>214.6213940657638</v>
       </c>
       <c r="X44" t="n">
-        <v>19.28114311021272</v>
+        <v>214.6213940657638</v>
       </c>
       <c r="Y44" t="n">
-        <v>19.28114311021272</v>
+        <v>214.6213940657638</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>259.0600686093459</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="C45" t="n">
-        <v>84.60703932821886</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="D45" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="E45" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="F45" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="G45" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="J45" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="K45" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2442489785619</v>
+        <v>210.6638646533206</v>
       </c>
       <c r="M45" t="n">
-        <v>304.2053859195205</v>
+        <v>405.5771599867667</v>
       </c>
       <c r="N45" t="n">
-        <v>542.809531908403</v>
+        <v>592.6151706602757</v>
       </c>
       <c r="O45" t="n">
-        <v>781.4136778972854</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="P45" t="n">
-        <v>964.0571555106362</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="Q45" t="n">
-        <v>964.0571555106362</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="R45" t="n">
-        <v>862.8876260635219</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="S45" t="n">
-        <v>689.4702815141908</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="T45" t="n">
-        <v>487.2836868729568</v>
+        <v>787.5284659937219</v>
       </c>
       <c r="U45" t="n">
-        <v>259.0600686093459</v>
+        <v>588.6576412478325</v>
       </c>
       <c r="V45" t="n">
-        <v>259.0600686093459</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="W45" t="n">
-        <v>259.0600686093459</v>
+        <v>413.4922188116532</v>
       </c>
       <c r="X45" t="n">
-        <v>259.0600686093459</v>
+        <v>214.6213940657638</v>
       </c>
       <c r="Y45" t="n">
-        <v>259.0600686093459</v>
+        <v>15.75056931987444</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="I46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="J46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="K46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="L46" t="n">
-        <v>46.5952681179257</v>
+        <v>43.06469432758742</v>
       </c>
       <c r="M46" t="n">
-        <v>85.78330631014788</v>
+        <v>82.2527325198096</v>
       </c>
       <c r="N46" t="n">
-        <v>129.4741569655842</v>
+        <v>125.9435831752459</v>
       </c>
       <c r="O46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="P46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="Q46" t="n">
-        <v>153.8134336004835</v>
+        <v>150.2828598101452</v>
       </c>
       <c r="R46" t="n">
-        <v>153.8134336004835</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="S46" t="n">
-        <v>153.8134336004835</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="T46" t="n">
-        <v>153.8134336004835</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="U46" t="n">
-        <v>153.8134336004835</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="V46" t="n">
-        <v>153.8134336004835</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>15.75056931987444</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L2" t="n">
-        <v>279.8985873492159</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N2" t="n">
-        <v>271.7621178998911</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>275.3651681344982</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8142,13 +8142,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8218,22 +8218,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L5" t="n">
-        <v>278.1154692732874</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>255.0333547912217</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>163.4617301689898</v>
       </c>
       <c r="L6" t="n">
-        <v>182.6865521591028</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M6" t="n">
-        <v>186.2662063012469</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>184.9452987477446</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q6" t="n">
         <v>139.9817740860215</v>
@@ -8379,13 +8379,13 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>162.4747015415544</v>
+        <v>160.5049674758691</v>
       </c>
       <c r="M7" t="n">
-        <v>178.5096609094456</v>
+        <v>164.5460751422359</v>
       </c>
       <c r="N7" t="n">
-        <v>171.8177168444618</v>
+        <v>153.305835659864</v>
       </c>
       <c r="O7" t="n">
         <v>163.0416663658825</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>262.2416917349371</v>
       </c>
       <c r="M8" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>274.2303838009153</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>164.3167157393088</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N9" t="n">
-        <v>173.6907663866335</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O9" t="n">
-        <v>186.728416823673</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>167.5717993463377</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8619,10 +8619,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M10" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N10" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O10" t="n">
         <v>163.0416663658825</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>274.4784056065013</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>271.7621178998911</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>258.8230210155857</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8771,19 +8771,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>182.6865521591028</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O12" t="n">
-        <v>184.9452987477446</v>
+        <v>169.0715212093943</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -8856,10 +8856,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M13" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N13" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O13" t="n">
         <v>163.0416663658825</v>
@@ -8929,16 +8929,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>262.4389053482807</v>
+        <v>246.5651278099304</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>257.9362584875889</v>
       </c>
       <c r="N14" t="n">
-        <v>273.5452359758195</v>
+        <v>257.0030888569071</v>
       </c>
       <c r="O14" t="n">
         <v>230.0982114216867</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>182.6865521591028</v>
+        <v>166.1444050401903</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>169.7240591823345</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>158.9317373436494</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -9026,7 +9026,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>166.4570508509713</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9093,10 +9093,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M16" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N16" t="n">
-        <v>171.8177168444618</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O16" t="n">
         <v>163.0416663658825</v>
@@ -9166,22 +9166,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>278.1154692732874</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>274.4784056065013</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>273.5452359758195</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>274.2303838009153</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9248,22 +9248,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>173.6907663866335</v>
       </c>
       <c r="O18" t="n">
-        <v>382.6009056104135</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>184.1139464652501</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>264.2220234242092</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>279.8985873492159</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>272.6952875305729</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>275.3651681344982</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9485,19 +9485,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>185.3423563661624</v>
+        <v>182.6865521591028</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>186.2662063012469</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>175.4738844625619</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>184.9452987477446</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9722,19 +9722,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>238.6269471880057</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9883,13 +9883,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -9956,25 +9956,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N27" t="n">
-        <v>371.3463732493024</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>152.5681426542525</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>438.6332444111135</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10196,22 +10196,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>349.2874543422998</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10357,10 +10357,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>333.8446085143028</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>238.4548774837949</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>430.8338933631474</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>243.2069195535496</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>356.0205080617874</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>160.2944739073598</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,13 +10825,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>220.6430966734834</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>243.2069195535496</v>
+        <v>351.9786433972171</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>150.6779938033424</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11068,13 +11068,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>427.2283497257032</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>426.2951800950214</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>239.3915379058515</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>383.1483227996774</v>
+        <v>339.0161504204488</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>328.2238285817638</v>
       </c>
       <c r="O42" t="n">
-        <v>198.1125443848066</v>
+        <v>339.4783609428749</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>196.2778928847056</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11305,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>376.3854187850225</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>426.2951800950214</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11381,19 +11381,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>335.4364962783046</v>
       </c>
       <c r="M45" t="n">
-        <v>197.6503338623806</v>
+        <v>339.0161504204488</v>
       </c>
       <c r="N45" t="n">
-        <v>372.3560009609923</v>
+        <v>320.2689955919282</v>
       </c>
       <c r="O45" t="n">
-        <v>383.6105333221035</v>
+        <v>339.4783609428749</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -22561,10 +22561,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>376.4311200835105</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H2" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -22600,22 +22600,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>323.6206775227822</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>347.1647481942382</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>360.6176474614227</v>
       </c>
     </row>
     <row r="3">
@@ -22676,19 +22676,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>146.062879909207</v>
       </c>
       <c r="T3" t="n">
-        <v>156.032556315593</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U3" t="n">
-        <v>181.8092097017462</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V3" t="n">
-        <v>193.9289697178007</v>
+        <v>210.2342346651944</v>
       </c>
       <c r="W3" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22704,7 +22704,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.041529734255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22755,16 +22755,16 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T4" t="n">
-        <v>183.8134170490529</v>
+        <v>202.3252982336507</v>
       </c>
       <c r="U4" t="n">
-        <v>242.1868569772623</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V4" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -22773,7 +22773,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>196.018300867864</v>
       </c>
     </row>
     <row r="5">
@@ -22801,7 +22801,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>316.9084496315363</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U5" t="n">
-        <v>207.2134805286079</v>
+        <v>225.7253617132057</v>
       </c>
       <c r="V5" t="n">
-        <v>283.6200860909063</v>
+        <v>302.1319672755041</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>340.8501824613893</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>122.502859909153</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>111.7232259685798</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>63.77634165678425</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -22913,10 +22913,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -22925,7 +22925,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>226.0746919662888</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>154.2116889873065</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>122.9951818235815</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>181.8154159451679</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>260.69873816186</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8878972070167</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V8" t="n">
-        <v>298.8713402530552</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23099,7 +23099,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>138.9431583895512</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23111,10 +23111,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>120.7679181440974</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>109.7534919028945</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23150,22 +23150,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>178.1829599431613</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.041529734255</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -23223,10 +23223,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>58.57201799137825</v>
       </c>
       <c r="R10" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23235,16 +23235,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V10" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X10" t="n">
-        <v>181.5774830098086</v>
+        <v>203.2608960285278</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>338.601669284252</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>387.7127122548189</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>223.7556276475204</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>313.4416634353933</v>
       </c>
       <c r="W11" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>357.3570204389738</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23354,10 +23354,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>45.26446047218649</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -23387,19 +23387,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>127.5509987246092</v>
+        <v>147.3818768545514</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>198.3513568206587</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>212.8233657292951</v>
+        <v>224.1049579006035</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>144.630597575249</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>123.8588069792302</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H13" t="n">
-        <v>118.095000128211</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
         <v>155.4504749272583</v>
@@ -23466,22 +23466,22 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>201.5678386764629</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>200.3555641679654</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>242.3908259573624</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23542,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T14" t="n">
-        <v>178.9636771849028</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>237.0350578730948</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>320.3600505003333</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23579,10 +23579,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>103.3128931854102</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>113.5129080761724</v>
+        <v>130.0550551950848</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
@@ -23591,7 +23591,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>87.93414998721002</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -23624,16 +23624,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T15" t="n">
-        <v>161.2931112631971</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>188.6684147701967</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23642,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>178.0926705169882</v>
       </c>
     </row>
     <row r="16">
@@ -23703,19 +23703,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
-        <v>179.8844256577437</v>
+        <v>201.5678386764629</v>
       </c>
       <c r="T16" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>242.1868569772623</v>
+        <v>258.7290040961748</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>224.5476180635119</v>
       </c>
       <c r="W16" t="n">
-        <v>285.7325478889088</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23743,13 +23743,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>362.7438733624829</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>371.1705651359065</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>310.5938838986874</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23779,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
-        <v>257.4082506688596</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23800,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23819,10 +23819,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -23831,7 +23831,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>36.01331705514481</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>181.8092097017462</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>193.9289697178007</v>
       </c>
       <c r="W18" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23931,28 +23931,28 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>227.1551389805992</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>242.1868569772623</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24013,25 +24013,25 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>105.7369455619211</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8878972070167</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>178.9636771849028</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>212.474035476212</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>338.0479125612334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24056,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>103.3758654814855</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>56.02566177341454</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>127.5509987246092</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>156.032556315593</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>187.8163559756081</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24183,16 +24183,16 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>285.5285789088086</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>208.0054709445994</v>
       </c>
       <c r="W22" t="n">
-        <v>153.336030751223</v>
+        <v>242.3908259573624</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>181.5774830098086</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24223,7 +24223,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>318.2910467450428</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24253,19 +24253,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>160.679581861839</v>
       </c>
       <c r="U23" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24347,10 +24347,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>146.95659991356</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24454,16 +24454,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G26" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>256.5108343207664</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
         <v>11.94928935461252</v>
@@ -24487,22 +24487,22 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>7.701851881103124</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>131.6592972141408</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>23.54985615838501</v>
       </c>
       <c r="S27" t="n">
-        <v>136.2759056302995</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>195.0896117727101</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>124.0808044327389</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24724,16 +24724,16 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>153.1480074614189</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24779,7 +24779,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>56.13150180783499</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -24812,22 +24812,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>10.54738439794659</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W30" t="n">
-        <v>152.4745669960426</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>193.4517821243685</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>201.8784738977921</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24961,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>9.67158594678844</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>73.3522607282257</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>328.0572133466886</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>16.10061421062353</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25052,19 +25052,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>12.5171184636319</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>19.37632353208235</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>76.11534602228681</v>
       </c>
     </row>
     <row r="34">
@@ -25095,10 +25095,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
         <v>22.26949182588285</v>
@@ -25137,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25159,7 +25159,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>166.6989502265273</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,25 +25198,25 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>149.0074258151476</v>
+        <v>37.92138929049358</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>114.327994852792</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>70.35882518776062</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25289,16 +25289,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>12.5171184636319</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>19.37632353208235</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>17.78889380932185</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25320,7 +25320,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>15.96843579630763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25353,7 +25353,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>193.4517821243685</v>
       </c>
       <c r="G38" t="n">
-        <v>174.288448637476</v>
+        <v>201.8784738977921</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>311.350527877306</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>9.67158594678844</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25526,19 +25526,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>12.5171184636319</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>19.37632353208235</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>17.78889380932185</v>
       </c>
       <c r="Y39" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25569,7 +25569,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J40" t="n">
         <v>93.35918011667277</v>
@@ -25593,10 +25593,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25642,13 +25642,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>218.4206210167046</v>
       </c>
       <c r="H41" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>13.59377307197545</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>195.4661185301224</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>278.8969609161378</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>172.8489841800386</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25715,10 +25715,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25760,19 +25760,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>3.282612196391142</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>29.05926558254436</v>
       </c>
       <c r="V42" t="n">
-        <v>46.97390180292732</v>
+        <v>35.91847065099481</v>
       </c>
       <c r="W42" t="n">
-        <v>10.68069428326055</v>
+        <v>78.28121494910204</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25848,7 +25848,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25870,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>157.8009251222525</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25912,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>45.59700058897266</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>225.414031377446</v>
+        <v>130.8701419717044</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>152.3588522189825</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -25946,10 +25946,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>82.77242830881268</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>29.05926558254436</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>59.3868189376077</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>8.890868705047012</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>8.800579278873897</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180149</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>364661.1237679899</v>
+        <v>350049.7958156168</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>364661.1237679899</v>
+        <v>350049.7958156168</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>364661.1237679899</v>
+        <v>351685.049566824</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>364661.1237679899</v>
+        <v>351685.049566824</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>364661.1237679897</v>
+        <v>351685.049566824</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506909.1411107078</v>
+        <v>364661.1237679897</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506909.1411107077</v>
+        <v>364661.1237679897</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107076</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506909.1411107078</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506909.1411107076</v>
+        <v>486975.2514232371</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506909.1411107076</v>
+        <v>486975.2514232371</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506909.1411107077</v>
+        <v>486975.2514232369</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506909.1411107077</v>
+        <v>475023.4923091704</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506909.1411107077</v>
+        <v>475023.4923091704</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>63121.07616893067</v>
+      </c>
+      <c r="C2" t="n">
+        <v>63121.07616893067</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63415.7618187435</v>
+      </c>
+      <c r="E2" t="n">
+        <v>63415.76181874351</v>
+      </c>
+      <c r="F2" t="n">
+        <v>63415.76181874351</v>
+      </c>
+      <c r="G2" t="n">
         <v>65754.15294315932</v>
       </c>
-      <c r="C2" t="n">
-        <v>65754.15294315934</v>
-      </c>
-      <c r="D2" t="n">
-        <v>65754.15294315932</v>
-      </c>
-      <c r="E2" t="n">
-        <v>65754.15294315931</v>
-      </c>
-      <c r="F2" t="n">
-        <v>65754.15294315931</v>
-      </c>
-      <c r="G2" t="n">
-        <v>91388.36989223283</v>
-      </c>
       <c r="H2" t="n">
-        <v>91388.36989223283</v>
+        <v>65754.15294315929</v>
       </c>
       <c r="I2" t="n">
-        <v>91388.36989223285</v>
+        <v>91388.3698922328</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.36989223283</v>
+        <v>88052.58645764725</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223282</v>
+        <v>87796.12542771841</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223282</v>
+        <v>87796.12542771843</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223282</v>
+        <v>87796.12542771843</v>
       </c>
       <c r="O2" t="n">
-        <v>91388.36989223282</v>
+        <v>85642.32397743248</v>
       </c>
       <c r="P2" t="n">
-        <v>91388.36989223285</v>
+        <v>85642.32397743248</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>8585.948846018267</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>611.8584928238274</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>53962.43490047232</v>
+        <v>4533.95439308712</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>52355.08930137913</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>47379.87821746379</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>11513.51303840759</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11513.51303840759</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11569.82013495752</v>
+      </c>
+      <c r="E4" t="n">
+        <v>11569.82013495752</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11569.82013495752</v>
+      </c>
+      <c r="G4" t="n">
         <v>12016.62850481742</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>12016.62850481742</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12016.62850481742</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12016.62850481742</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12016.62850481742</v>
-      </c>
-      <c r="G4" t="n">
-        <v>16914.68964098084</v>
-      </c>
-      <c r="H4" t="n">
-        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
         <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>16914.68964098084</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="K4" t="n">
-        <v>16914.68964098084</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="L4" t="n">
-        <v>16914.68964098084</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="M4" t="n">
-        <v>16914.68964098084</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="N4" t="n">
-        <v>16914.68964098084</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="O4" t="n">
-        <v>16914.68964098084</v>
+        <v>15816.76321561712</v>
       </c>
       <c r="P4" t="n">
-        <v>16914.68964098084</v>
+        <v>15816.76321561712</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>35185.31370463355</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>35305.07353582722</v>
       </c>
       <c r="E5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1677.473535827221</v>
+      </c>
+      <c r="G5" t="n">
         <v>2683.236080657098</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>2683.236080657098</v>
-      </c>
-      <c r="G5" t="n">
-        <v>14653.66876376167</v>
-      </c>
-      <c r="H5" t="n">
-        <v>14653.66876376167</v>
       </c>
       <c r="I5" t="n">
         <v>14653.66876376167</v>
       </c>
       <c r="J5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="K5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>12976.19522793445</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>12976.19522793445</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>12976.19522793445</v>
       </c>
       <c r="O5" t="n">
-        <v>14653.66876376167</v>
+        <v>11970.43268310457</v>
       </c>
       <c r="P5" t="n">
-        <v>14653.66876376167</v>
+        <v>11970.43268310457</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-11911.41162560657</v>
+        <v>6357.524120382651</v>
       </c>
       <c r="C6" t="n">
-        <v>2878.294378637673</v>
+        <v>14943.47296640091</v>
       </c>
       <c r="D6" t="n">
-        <v>2878.294378637658</v>
+        <v>14452.91215609916</v>
       </c>
       <c r="E6" t="n">
-        <v>36505.89437863764</v>
+        <v>48692.370648923</v>
       </c>
       <c r="F6" t="n">
-        <v>36505.89437863764</v>
+        <v>48692.370648923</v>
       </c>
       <c r="G6" t="n">
-        <v>-6360.434033022462</v>
+        <v>45065.49456669296</v>
       </c>
       <c r="H6" t="n">
-        <v>47602.00086744986</v>
+        <v>49599.44895978006</v>
       </c>
       <c r="I6" t="n">
-        <v>47602.00086744987</v>
+        <v>6243.12112410712</v>
       </c>
       <c r="J6" t="n">
-        <v>36055.08275745897</v>
+        <v>57427.20061899499</v>
       </c>
       <c r="K6" t="n">
-        <v>47602.00086744982</v>
+        <v>57427.20061899499</v>
       </c>
       <c r="L6" t="n">
-        <v>47602.00086744985</v>
+        <v>57337.17127898573</v>
       </c>
       <c r="M6" t="n">
-        <v>47602.00086744985</v>
+        <v>57337.17127898576</v>
       </c>
       <c r="N6" t="n">
-        <v>47602.00086744985</v>
+        <v>57337.17127898576</v>
       </c>
       <c r="O6" t="n">
-        <v>222.1226499860568</v>
+        <v>56581.0902356631</v>
       </c>
       <c r="P6" t="n">
-        <v>47602.00086744987</v>
+        <v>56581.0902356631</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="D4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="E4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27.59002526031614</v>
+      </c>
+      <c r="G4" t="n">
         <v>44.13217237922859</v>
       </c>
-      <c r="C4" t="n">
+      <c r="H4" t="n">
         <v>44.13217237922859</v>
-      </c>
-      <c r="D4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="E4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="F4" t="n">
-        <v>44.13217237922859</v>
-      </c>
-      <c r="G4" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H4" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="K4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O4" t="n">
-        <v>241.0142888776591</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P4" t="n">
-        <v>241.0142888776591</v>
+        <v>196.8821164984305</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
+        <v>16.54214711891245</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>196.8821164984305</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>196.8821164984305</v>
+        <v>16.54214711891245</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N2" t="n">
-        <v>42.34905430330019</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,13 +34862,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
         <v>24.58512791403967</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L5" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L6" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M6" t="n">
-        <v>44.13217237922859</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>42.34905430330016</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35099,13 +35099,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O7" t="n">
         <v>24.58512791403967</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N9" t="n">
-        <v>42.34905430330018</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35339,10 +35339,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35412,22 +35412,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>42.34905430330016</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O12" t="n">
-        <v>42.34905430330016</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35576,10 +35576,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M13" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N13" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O13" t="n">
         <v>24.58512791403967</v>
@@ -35649,16 +35649,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>42.34905430330018</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N14" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330016</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35813,10 +35813,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M16" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N16" t="n">
-        <v>44.13217237922859</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O16" t="n">
         <v>24.58512791403967</v>
@@ -35886,22 +35886,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8947995804632</v>
+        <v>42.34905430330018</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O17" t="n">
-        <v>150.7019698410586</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="P17" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35968,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="O18" t="n">
-        <v>240.0046611659691</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8947995804632</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M20" t="n">
-        <v>219.1673002655598</v>
+        <v>42.34905430330019</v>
       </c>
       <c r="N20" t="n">
-        <v>207.9338608153932</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36205,19 +36205,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>46.78797658628819</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>42.34905430330016</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36442,19 +36442,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,13 +36603,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M26" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N26" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N27" t="n">
-        <v>240.0046611659691</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>9.971898209808115</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M29" t="n">
-        <v>219.1673002655598</v>
+        <v>208.2870111838408</v>
       </c>
       <c r="N29" t="n">
         <v>207.9338608153932</v>
@@ -36849,7 +36849,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>206.6912098978553</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37077,10 +37077,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N32" t="n">
-        <v>207.9338608153932</v>
+        <v>104.4315449177119</v>
       </c>
       <c r="O32" t="n">
         <v>150.7019698410586</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>107.1131654004615</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>200.4876601358747</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37323,7 +37323,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>104.6525397736754</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>20.31269982133833</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>0.5532456285028686</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37627,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>104.6525397736754</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>8.081749358897964</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37788,13 +37788,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="N41" t="n">
-        <v>207.9338608153933</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>9.29332648416478</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>241.0142888776591</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="O42" t="n">
-        <v>55.51629994036219</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>62.30348547037534</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655598</v>
+        <v>146.0391855577497</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153932</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38101,19 +38101,19 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="M45" t="n">
-        <v>55.51629994036225</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="N45" t="n">
-        <v>241.0142888776591</v>
+        <v>188.9272835085949</v>
       </c>
       <c r="O45" t="n">
-        <v>241.0142888776591</v>
+        <v>196.8821164984305</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
